--- a/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Dlk1-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -85,19 +94,10 @@
     <t>Notch2</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H2">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.24118109789547</v>
+        <v>1.263127</v>
       </c>
       <c r="N2">
-        <v>1.24118109789547</v>
+        <v>2.526254</v>
       </c>
       <c r="O2">
-        <v>0.008977862450282276</v>
+        <v>0.008853724851211803</v>
       </c>
       <c r="P2">
-        <v>0.008977862450282276</v>
+        <v>0.006359620920621168</v>
       </c>
       <c r="Q2">
-        <v>1.291613544409236</v>
+        <v>0.07230202104349999</v>
       </c>
       <c r="R2">
-        <v>1.291613544409236</v>
+        <v>0.289208084174</v>
       </c>
       <c r="S2">
-        <v>0.008977862450282276</v>
+        <v>0.0001413596563201605</v>
       </c>
       <c r="T2">
-        <v>0.008977862450282276</v>
+        <v>9.827751642224238E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H3">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>15.7735825989812</v>
+        <v>16.55473833333333</v>
       </c>
       <c r="N3">
-        <v>15.7735825989812</v>
+        <v>49.664215</v>
       </c>
       <c r="O3">
-        <v>0.1140954008741645</v>
+        <v>0.1160382908346841</v>
       </c>
       <c r="P3">
-        <v>0.1140954008741645</v>
+        <v>0.1250252669447441</v>
       </c>
       <c r="Q3">
-        <v>16.4145046707904</v>
+        <v>0.9476014995691666</v>
       </c>
       <c r="R3">
-        <v>16.4145046707904</v>
+        <v>5.685608997415</v>
       </c>
       <c r="S3">
-        <v>0.1140954008741645</v>
+        <v>0.001852681576175782</v>
       </c>
       <c r="T3">
-        <v>0.1140954008741645</v>
+        <v>0.001932060554979934</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H4">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>42.0576190179656</v>
+        <v>43.17386966666667</v>
       </c>
       <c r="N4">
-        <v>42.0576190179656</v>
+        <v>129.521609</v>
       </c>
       <c r="O4">
-        <v>0.3042162978230198</v>
+        <v>0.3026216388302571</v>
       </c>
       <c r="P4">
-        <v>0.3042162978230198</v>
+        <v>0.3260591905124802</v>
       </c>
       <c r="Q4">
-        <v>43.76653049366914</v>
+        <v>2.471293886654833</v>
       </c>
       <c r="R4">
-        <v>43.76653049366914</v>
+        <v>14.827763319929</v>
       </c>
       <c r="S4">
-        <v>0.3042162978230198</v>
+        <v>0.004831694182842583</v>
       </c>
       <c r="T4">
-        <v>0.3042162978230198</v>
+        <v>0.005038710302104523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H5">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>50.2176130774447</v>
+        <v>50.47523266666667</v>
       </c>
       <c r="N5">
-        <v>50.2176130774447</v>
+        <v>151.425698</v>
       </c>
       <c r="O5">
-        <v>0.3632401617743332</v>
+        <v>0.3537995956317651</v>
       </c>
       <c r="P5">
-        <v>0.3632401617743332</v>
+        <v>0.3812007964838307</v>
       </c>
       <c r="Q5">
-        <v>52.25808653443777</v>
+        <v>2.889227555456333</v>
       </c>
       <c r="R5">
-        <v>52.25808653443777</v>
+        <v>17.335365332738</v>
       </c>
       <c r="S5">
-        <v>0.3632401617743332</v>
+        <v>0.005648807714853803</v>
       </c>
       <c r="T5">
-        <v>0.3632401617743332</v>
+        <v>0.005890833432404072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>1.04063262532702</v>
+        <v>0.0572405</v>
       </c>
       <c r="H6">
-        <v>1.04063262532702</v>
+        <v>0.114481</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.01596612258633864</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.01545336076613875</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.62992986917936</v>
+        <v>1.697247666666667</v>
       </c>
       <c r="N6">
-        <v>1.62992986917936</v>
+        <v>5.091743</v>
       </c>
       <c r="O6">
-        <v>0.01178980746154681</v>
+        <v>0.0118966373492356</v>
       </c>
       <c r="P6">
-        <v>0.01178980746154681</v>
+        <v>0.01281801248220741</v>
       </c>
       <c r="Q6">
-        <v>1.696158198863044</v>
+        <v>0.09715130506383333</v>
       </c>
       <c r="R6">
-        <v>1.696158198863044</v>
+        <v>0.582907830383</v>
       </c>
       <c r="S6">
-        <v>0.01178980746154681</v>
+        <v>0.0001899431702831104</v>
       </c>
       <c r="T6">
-        <v>0.01178980746154681</v>
+        <v>0.0001980813711924208</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,1177 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.0572405</v>
+      </c>
+      <c r="H7">
+        <v>0.114481</v>
+      </c>
+      <c r="I7">
+        <v>0.01596612258633864</v>
+      </c>
+      <c r="J7">
+        <v>0.01545336076613875</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>29.501953</v>
+      </c>
+      <c r="N7">
+        <v>59.003906</v>
+      </c>
+      <c r="O7">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P7">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q7">
+        <v>1.6887065406965</v>
+      </c>
+      <c r="R7">
+        <v>6.754826162786</v>
+      </c>
+      <c r="S7">
+        <v>0.003301636285863202</v>
+      </c>
+      <c r="T7">
+        <v>0.002295397589035563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.506518</v>
+      </c>
+      <c r="I8">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J8">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.263127</v>
+      </c>
+      <c r="N8">
+        <v>2.526254</v>
+      </c>
+      <c r="O8">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P8">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q8">
+        <v>0.2132655205953333</v>
+      </c>
+      <c r="R8">
+        <v>1.279593123572</v>
+      </c>
+      <c r="S8">
+        <v>0.0004169612448061254</v>
+      </c>
+      <c r="T8">
+        <v>0.0004348261376399697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.506518</v>
+      </c>
+      <c r="I9">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J9">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N9">
+        <v>49.664215</v>
+      </c>
+      <c r="O9">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P9">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q9">
+        <v>2.795090983707778</v>
+      </c>
+      <c r="R9">
+        <v>25.15581885337</v>
+      </c>
+      <c r="S9">
+        <v>0.005464758732024848</v>
+      </c>
+      <c r="T9">
+        <v>0.008548348181683652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.506518</v>
+      </c>
+      <c r="I10">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J10">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N10">
+        <v>129.521609</v>
+      </c>
+      <c r="O10">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P10">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q10">
+        <v>7.289447371940223</v>
+      </c>
+      <c r="R10">
+        <v>65.60502634746202</v>
+      </c>
+      <c r="S10">
+        <v>0.01425179767300577</v>
+      </c>
+      <c r="T10">
+        <v>0.02229363357064822</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.506518</v>
+      </c>
+      <c r="I11">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J11">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N11">
+        <v>151.425698</v>
+      </c>
+      <c r="O11">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P11">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q11">
+        <v>8.52220463328489</v>
+      </c>
+      <c r="R11">
+        <v>76.699841699564</v>
+      </c>
+      <c r="S11">
+        <v>0.01666199506824899</v>
+      </c>
+      <c r="T11">
+        <v>0.02606382865728327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.506518</v>
+      </c>
+      <c r="I12">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J12">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N12">
+        <v>5.091743</v>
+      </c>
+      <c r="O12">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P12">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q12">
+        <v>0.2865621645415556</v>
+      </c>
+      <c r="R12">
+        <v>2.579059480874</v>
+      </c>
+      <c r="S12">
+        <v>0.0005602655155321874</v>
+      </c>
+      <c r="T12">
+        <v>0.0008764055168424682</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1688393333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.506518</v>
+      </c>
+      <c r="I13">
+        <v>0.04709444350408701</v>
+      </c>
+      <c r="J13">
+        <v>0.06837296484607114</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>29.501953</v>
+      </c>
+      <c r="N13">
+        <v>59.003906</v>
+      </c>
+      <c r="O13">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P13">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q13">
+        <v>4.981090076551333</v>
+      </c>
+      <c r="R13">
+        <v>29.886540459308</v>
+      </c>
+      <c r="S13">
+        <v>0.009738665270469089</v>
+      </c>
+      <c r="T13">
+        <v>0.01015592278197356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="H7">
-        <v>1.04063262532702</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="N7">
-        <v>27.3291402792182</v>
-      </c>
-      <c r="O7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="P7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="Q7">
-        <v>28.43959499669324</v>
-      </c>
-      <c r="R7">
-        <v>28.43959499669324</v>
-      </c>
-      <c r="S7">
-        <v>0.1976804696166534</v>
-      </c>
-      <c r="T7">
-        <v>0.1976804696166534</v>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H14">
+        <v>0.207235</v>
+      </c>
+      <c r="I14">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J14">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.263127</v>
+      </c>
+      <c r="N14">
+        <v>2.526254</v>
+      </c>
+      <c r="O14">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P14">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q14">
+        <v>0.08725470794833333</v>
+      </c>
+      <c r="R14">
+        <v>0.5235282476899999</v>
+      </c>
+      <c r="S14">
+        <v>0.0001705940629304337</v>
+      </c>
+      <c r="T14">
+        <v>0.0001779032425971419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H15">
+        <v>0.207235</v>
+      </c>
+      <c r="I15">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J15">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N15">
+        <v>49.664215</v>
+      </c>
+      <c r="O15">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P15">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q15">
+        <v>1.143573732836111</v>
+      </c>
+      <c r="R15">
+        <v>10.292163595525</v>
+      </c>
+      <c r="S15">
+        <v>0.002235832242548477</v>
+      </c>
+      <c r="T15">
+        <v>0.0034974412270269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H16">
+        <v>0.207235</v>
+      </c>
+      <c r="I16">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J16">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N16">
+        <v>129.521609</v>
+      </c>
+      <c r="O16">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P16">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q16">
+        <v>2.982378960123889</v>
+      </c>
+      <c r="R16">
+        <v>26.841410641115</v>
+      </c>
+      <c r="S16">
+        <v>0.005830930570612201</v>
+      </c>
+      <c r="T16">
+        <v>0.009121139136246457</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H17">
+        <v>0.207235</v>
+      </c>
+      <c r="I17">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J17">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N17">
+        <v>151.425698</v>
+      </c>
+      <c r="O17">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P17">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q17">
+        <v>3.486744947225556</v>
+      </c>
+      <c r="R17">
+        <v>31.38070452503</v>
+      </c>
+      <c r="S17">
+        <v>0.0068170302890886</v>
+      </c>
+      <c r="T17">
+        <v>0.01066366354560371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H18">
+        <v>0.207235</v>
+      </c>
+      <c r="I18">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J18">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N18">
+        <v>5.091743</v>
+      </c>
+      <c r="O18">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P18">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q18">
+        <v>0.1172430400672222</v>
+      </c>
+      <c r="R18">
+        <v>1.055187360605</v>
+      </c>
+      <c r="S18">
+        <v>0.000229225070207402</v>
+      </c>
+      <c r="T18">
+        <v>0.0003585694827880724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.06907833333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.207235</v>
+      </c>
+      <c r="I19">
+        <v>0.01926805562599843</v>
+      </c>
+      <c r="J19">
+        <v>0.02797387530132306</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>29.501953</v>
+      </c>
+      <c r="N19">
+        <v>59.003906</v>
+      </c>
+      <c r="O19">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P19">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q19">
+        <v>2.037945743318334</v>
+      </c>
+      <c r="R19">
+        <v>12.22767445991</v>
+      </c>
+      <c r="S19">
+        <v>0.003984443390611314</v>
+      </c>
+      <c r="T19">
+        <v>0.004155158667060777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>3.289964</v>
+      </c>
+      <c r="H20">
+        <v>6.579928</v>
+      </c>
+      <c r="I20">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J20">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.263127</v>
+      </c>
+      <c r="N20">
+        <v>2.526254</v>
+      </c>
+      <c r="O20">
+        <v>0.008853724851211803</v>
+      </c>
+      <c r="P20">
+        <v>0.006359620920621168</v>
+      </c>
+      <c r="Q20">
+        <v>4.155642357427999</v>
+      </c>
+      <c r="R20">
+        <v>16.622569429712</v>
+      </c>
+      <c r="S20">
+        <v>0.008124809887155084</v>
+      </c>
+      <c r="T20">
+        <v>0.005648614023961814</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>3.289964</v>
+      </c>
+      <c r="H21">
+        <v>6.579928</v>
+      </c>
+      <c r="I21">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J21">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>16.55473833333333</v>
+      </c>
+      <c r="N21">
+        <v>49.664215</v>
+      </c>
+      <c r="O21">
+        <v>0.1160382908346841</v>
+      </c>
+      <c r="P21">
+        <v>0.1250252669447441</v>
+      </c>
+      <c r="Q21">
+        <v>54.46449314608666</v>
+      </c>
+      <c r="R21">
+        <v>326.78695887652</v>
+      </c>
+      <c r="S21">
+        <v>0.106485018283935</v>
+      </c>
+      <c r="T21">
+        <v>0.1110474169810537</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.289964</v>
+      </c>
+      <c r="H22">
+        <v>6.579928</v>
+      </c>
+      <c r="I22">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J22">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>43.17386966666667</v>
+      </c>
+      <c r="N22">
+        <v>129.521609</v>
+      </c>
+      <c r="O22">
+        <v>0.3026216388302571</v>
+      </c>
+      <c r="P22">
+        <v>0.3260591905124802</v>
+      </c>
+      <c r="Q22">
+        <v>142.0404769440253</v>
+      </c>
+      <c r="R22">
+        <v>852.2428616641521</v>
+      </c>
+      <c r="S22">
+        <v>0.2777072164037966</v>
+      </c>
+      <c r="T22">
+        <v>0.289605707503481</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.289964</v>
+      </c>
+      <c r="H23">
+        <v>6.579928</v>
+      </c>
+      <c r="I23">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J23">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>50.47523266666667</v>
+      </c>
+      <c r="N23">
+        <v>151.425698</v>
+      </c>
+      <c r="O23">
+        <v>0.3537995956317651</v>
+      </c>
+      <c r="P23">
+        <v>0.3812007964838307</v>
+      </c>
+      <c r="Q23">
+        <v>166.0616983649574</v>
+      </c>
+      <c r="R23">
+        <v>996.370190189744</v>
+      </c>
+      <c r="S23">
+        <v>0.3246717625595736</v>
+      </c>
+      <c r="T23">
+        <v>0.3385824708485396</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.289964</v>
+      </c>
+      <c r="H24">
+        <v>6.579928</v>
+      </c>
+      <c r="I24">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J24">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.697247666666667</v>
+      </c>
+      <c r="N24">
+        <v>5.091743</v>
+      </c>
+      <c r="O24">
+        <v>0.0118966373492356</v>
+      </c>
+      <c r="P24">
+        <v>0.01281801248220741</v>
+      </c>
+      <c r="Q24">
+        <v>5.583883722417333</v>
+      </c>
+      <c r="R24">
+        <v>33.503302334504</v>
+      </c>
+      <c r="S24">
+        <v>0.0109172035932129</v>
+      </c>
+      <c r="T24">
+        <v>0.01138495611138445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.289964</v>
+      </c>
+      <c r="H25">
+        <v>6.579928</v>
+      </c>
+      <c r="I25">
+        <v>0.9176713782835759</v>
+      </c>
+      <c r="J25">
+        <v>0.8881997990864671</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>29.501953</v>
+      </c>
+      <c r="N25">
+        <v>59.003906</v>
+      </c>
+      <c r="O25">
+        <v>0.2067901125028462</v>
+      </c>
+      <c r="P25">
+        <v>0.1485371126561165</v>
+      </c>
+      <c r="Q25">
+        <v>97.060363299692</v>
+      </c>
+      <c r="R25">
+        <v>388.241453198768</v>
+      </c>
+      <c r="S25">
+        <v>0.1897653675559026</v>
+      </c>
+      <c r="T25">
+        <v>0.1319306336180466</v>
       </c>
     </row>
   </sheetData>
